--- a/perform.xlsx
+++ b/perform.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pagapow/Documents/Projects/Imperial/Projects/Cyberinfrastructure/Schema/Euclids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pagapow/Documents/Projects/Imperial/Projects/Cyberinfrastructure/Schema/Definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,18 +293,9 @@
     <t>2</t>
   </si>
   <si>
-    <t>gen_comorbid</t>
-  </si>
-  <si>
     <t>cardiac, Cardiac | pulmonary, Pulmonary | immunodef, immunodeficiency | malignancy, Malignancy | neurologic, Neurologic | psycho_retard, Pyschomotor retardation | prematurity, Prematurity | other, Other</t>
   </si>
   <si>
-    <t>gen_comorbid_prem_gest_age</t>
-  </si>
-  <si>
-    <t>gen_comorbid_other</t>
-  </si>
-  <si>
     <t>General: If other, specify:</t>
   </si>
   <si>
@@ -434,33 +425,6 @@
     <t>phys_rash</t>
   </si>
   <si>
-    <t>diag_crp</t>
-  </si>
-  <si>
-    <t>diag_crp_units</t>
-  </si>
-  <si>
-    <t>diag_crp_value</t>
-  </si>
-  <si>
-    <t>diag_full_blood_count</t>
-  </si>
-  <si>
-    <t>diag_neutrophils</t>
-  </si>
-  <si>
-    <t>diag_lymphocytes</t>
-  </si>
-  <si>
-    <t>diag_monocytes</t>
-  </si>
-  <si>
-    <t>diag_eosinophils</t>
-  </si>
-  <si>
-    <t>diag_basophils</t>
-  </si>
-  <si>
     <t>Diagnostics: Haemoglobin?</t>
   </si>
   <si>
@@ -674,33 +638,6 @@
     <t>Diagnostics: Procalcitonin test performed?</t>
   </si>
   <si>
-    <t>diag_procalcitonin</t>
-  </si>
-  <si>
-    <t>diag_haemoglobin</t>
-  </si>
-  <si>
-    <t>diag_whitecells</t>
-  </si>
-  <si>
-    <t>diag_platelets</t>
-  </si>
-  <si>
-    <t>diag_haemocrit</t>
-  </si>
-  <si>
-    <t>diag_chest_xray</t>
-  </si>
-  <si>
-    <t>diag_chest_xray_result</t>
-  </si>
-  <si>
-    <t>diag_urinanalysis_res</t>
-  </si>
-  <si>
-    <t>diag_urinanalysis</t>
-  </si>
-  <si>
     <t>{{ protein.validation }}</t>
   </si>
   <si>
@@ -713,27 +650,12 @@
     <t>Defined as time of arrival until time of discharge or admission</t>
   </si>
   <si>
-    <t>diag_rapid_strep</t>
-  </si>
-  <si>
-    <t>diag_rapid_strep_orgs</t>
-  </si>
-  <si>
     <t>Diagnostics: Nasopharyngeal tests performed?</t>
   </si>
   <si>
     <t>Diagnostics: If nasopharyngeal organisms other, details:</t>
   </si>
   <si>
-    <t>diag_nasophar</t>
-  </si>
-  <si>
-    <t>diag_nasophar_orgs</t>
-  </si>
-  <si>
-    <t>diag_nasophar_orgs_other</t>
-  </si>
-  <si>
     <t>Antibiotics</t>
   </si>
   <si>
@@ -743,9 +665,6 @@
     <t>{{ types.singlechoice }}</t>
   </si>
   <si>
-    <t>treat_inhaled_meds</t>
-  </si>
-  <si>
     <t>inter_any</t>
   </si>
   <si>
@@ -755,15 +674,6 @@
     <t>inter_haemodynamic</t>
   </si>
   <si>
-    <t>inter_emerg_proc</t>
-  </si>
-  <si>
-    <t>inter_emerg_proc_other</t>
-  </si>
-  <si>
-    <t>inter_emerg_proc_list</t>
-  </si>
-  <si>
     <t>evol_dest</t>
   </si>
   <si>
@@ -803,24 +713,6 @@
     <t>phys_focal_neuro_signs</t>
   </si>
   <si>
-    <t>diag_urine_cult</t>
-  </si>
-  <si>
-    <t>diag_urine_cult_orgs</t>
-  </si>
-  <si>
-    <t>diag_stool_cult_ragif</t>
-  </si>
-  <si>
-    <t>diag_stool_cult_ragif_orgs</t>
-  </si>
-  <si>
-    <t>diag_blood_cult</t>
-  </si>
-  <si>
-    <t>diag_blood_cult_orgs</t>
-  </si>
-  <si>
     <t>treat_antib</t>
   </si>
   <si>
@@ -869,21 +761,6 @@
     <t>inter_airway_intub_vent</t>
   </si>
   <si>
-    <t>diag_lumbar</t>
-  </si>
-  <si>
-    <t>diag_lumbar_whitecells</t>
-  </si>
-  <si>
-    <t>diag_lumbar_glucose</t>
-  </si>
-  <si>
-    <t>diag_lumbar_protein</t>
-  </si>
-  <si>
-    <t>diag_lumbar_cult</t>
-  </si>
-  <si>
     <t>vital_capillary_refill</t>
   </si>
   <si>
@@ -1082,9 +959,6 @@
     <t>row: 1-5</t>
   </si>
   <si>
-    <t>phys_fund_details</t>
-  </si>
-  <si>
     <t>Diagnostics: If lumbar puncture, organisms?</t>
   </si>
   <si>
@@ -1098,6 +972,132 @@
   </si>
   <si>
     <t>[pres_prev_visit_cnt] &gt; {{ r_iter }}</t>
+  </si>
+  <si>
+    <t>phys_fund_list</t>
+  </si>
+  <si>
+    <t>gen_com</t>
+  </si>
+  <si>
+    <t>gen_com_prem_gest_age</t>
+  </si>
+  <si>
+    <t>gen_com_other</t>
+  </si>
+  <si>
+    <t>treat_inhaled</t>
+  </si>
+  <si>
+    <t>inter_eproc_other</t>
+  </si>
+  <si>
+    <t>inter_eproc</t>
+  </si>
+  <si>
+    <t>inter_eproc_list</t>
+  </si>
+  <si>
+    <t>dia_crp</t>
+  </si>
+  <si>
+    <t>dia_crp_units</t>
+  </si>
+  <si>
+    <t>dia_crp_value</t>
+  </si>
+  <si>
+    <t>dia_haemoglobin</t>
+  </si>
+  <si>
+    <t>dia_whitecells</t>
+  </si>
+  <si>
+    <t>dia_platelets</t>
+  </si>
+  <si>
+    <t>dia_haemocrit</t>
+  </si>
+  <si>
+    <t>dia_neutrophils</t>
+  </si>
+  <si>
+    <t>dia_lymphocytes</t>
+  </si>
+  <si>
+    <t>dia_monocytes</t>
+  </si>
+  <si>
+    <t>dia_eosinophils</t>
+  </si>
+  <si>
+    <t>dia_basophils</t>
+  </si>
+  <si>
+    <t>dia_procalcitonin</t>
+  </si>
+  <si>
+    <t>dia_chest_xray</t>
+  </si>
+  <si>
+    <t>dia_chest_xray_result</t>
+  </si>
+  <si>
+    <t>dia_urinanalysis</t>
+  </si>
+  <si>
+    <t>dia_urinanalysis_res</t>
+  </si>
+  <si>
+    <t>dia_urine_done</t>
+  </si>
+  <si>
+    <t>dia_urine_orgs</t>
+  </si>
+  <si>
+    <t>dia_stool</t>
+  </si>
+  <si>
+    <t>dia_stool_orgs</t>
+  </si>
+  <si>
+    <t>dia_rapid_strep_done</t>
+  </si>
+  <si>
+    <t>dia_rapid_strep_orgs</t>
+  </si>
+  <si>
+    <t>dia_naso_done</t>
+  </si>
+  <si>
+    <t>dia_naso_orgs</t>
+  </si>
+  <si>
+    <t>dia_naso_orgs_other</t>
+  </si>
+  <si>
+    <t>dia_full_bld_count</t>
+  </si>
+  <si>
+    <t>dia_bld_done</t>
+  </si>
+  <si>
+    <t>dia_bld_orgs</t>
+  </si>
+  <si>
+    <t>dia_lmbr_done</t>
+  </si>
+  <si>
+    <t>dia_lmbr_whitecells</t>
+  </si>
+  <si>
+    <t>dia_lmbr_glucose</t>
+  </si>
+  <si>
+    <t>dia_lmbr_protein</t>
+  </si>
+  <si>
+    <t>dia_lmbr_orgs</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>72</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
@@ -1832,7 +1832,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>33</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -1884,18 +1884,18 @@
         <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>37</v>
@@ -1904,19 +1904,19 @@
         <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
@@ -1948,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>28</v>
@@ -1956,22 +1956,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>41</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -1991,21 +1991,21 @@
         <v>17</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -2014,7 +2014,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>27</v>
@@ -2023,27 +2023,27 @@
         <v>28</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>79</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>78</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>78</v>
@@ -2083,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>81</v>
@@ -2091,36 +2091,36 @@
     </row>
     <row r="18" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>78</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="3" t="s">
@@ -2138,10 +2138,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>78</v>
@@ -2150,27 +2150,27 @@
         <v>17</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>82</v>
@@ -2178,19 +2178,19 @@
     </row>
     <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>84</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>78</v>
@@ -2224,19 +2224,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>82</v>
@@ -2244,16 +2244,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>83</v>
@@ -2264,558 +2264,558 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="I50" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>69</v>
@@ -2829,42 +2829,42 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>47</v>
@@ -2878,22 +2878,22 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>50</v>
@@ -2907,22 +2907,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>53</v>
@@ -2936,51 +2936,51 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>56</v>
@@ -2994,22 +2994,22 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>59</v>
@@ -3023,22 +3023,22 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>62</v>
@@ -3052,22 +3052,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>65</v>
@@ -3081,333 +3081,333 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I76" s="16"/>
       <c r="J76" s="15" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>50</v>
@@ -3421,23 +3421,23 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I77" s="16"/>
       <c r="J77" s="15" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>44</v>
@@ -3451,199 +3451,199 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="15" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="J85" s="16"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="5" t="s">
@@ -3652,322 +3652,322 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>23</v>
@@ -3975,39 +3975,39 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/perform.xlsx
+++ b/perform.xlsx
@@ -674,12 +674,6 @@
     <t>inter_haemodynamic</t>
   </si>
   <si>
-    <t>evol_dest</t>
-  </si>
-  <si>
-    <t>evol_time_in_ed</t>
-  </si>
-  <si>
     <t>Working Diagnosis: Focus?</t>
   </si>
   <si>
@@ -689,15 +683,6 @@
     <t>Working Diagnosis: Final diagnosis?</t>
   </si>
   <si>
-    <t>wdiag_focus_list</t>
-  </si>
-  <si>
-    <t>wdiag_focus_other</t>
-  </si>
-  <si>
-    <t>wdiag_bactvir</t>
-  </si>
-  <si>
     <t>pres_date</t>
   </si>
   <si>
@@ -728,9 +713,6 @@
     <t>inter_meds</t>
   </si>
   <si>
-    <t>inter_meds_list</t>
-  </si>
-  <si>
     <t>inter_meds_other</t>
   </si>
   <si>
@@ -950,9 +932,6 @@
     <t>treat_oxygen_therapy</t>
   </si>
   <si>
-    <t>pres_prev</t>
-  </si>
-  <si>
     <t>pres_prev_visit_date_{{ r_iter }}</t>
   </si>
   <si>
@@ -974,9 +953,6 @@
     <t>[pres_prev_visit_cnt] &gt; {{ r_iter }}</t>
   </si>
   <si>
-    <t>phys_fund_list</t>
-  </si>
-  <si>
     <t>gen_com</t>
   </si>
   <si>
@@ -1049,27 +1025,15 @@
     <t>dia_urinanalysis_res</t>
   </si>
   <si>
-    <t>dia_urine_done</t>
-  </si>
-  <si>
-    <t>dia_urine_orgs</t>
-  </si>
-  <si>
     <t>dia_stool</t>
   </si>
   <si>
     <t>dia_stool_orgs</t>
   </si>
   <si>
-    <t>dia_rapid_strep_done</t>
-  </si>
-  <si>
     <t>dia_rapid_strep_orgs</t>
   </si>
   <si>
-    <t>dia_naso_done</t>
-  </si>
-  <si>
     <t>dia_naso_orgs</t>
   </si>
   <si>
@@ -1079,15 +1043,9 @@
     <t>dia_full_bld_count</t>
   </si>
   <si>
-    <t>dia_bld_done</t>
-  </si>
-  <si>
     <t>dia_bld_orgs</t>
   </si>
   <si>
-    <t>dia_lmbr_done</t>
-  </si>
-  <si>
     <t>dia_lmbr_whitecells</t>
   </si>
   <si>
@@ -1098,6 +1056,48 @@
   </si>
   <si>
     <t>dia_lmbr_orgs</t>
+  </si>
+  <si>
+    <t>out_dest</t>
+  </si>
+  <si>
+    <t>out_time_in_ed</t>
+  </si>
+  <si>
+    <t>out_focus_other</t>
+  </si>
+  <si>
+    <t>out_bactvir</t>
+  </si>
+  <si>
+    <t>dia_urn_orgs</t>
+  </si>
+  <si>
+    <t>out_focus</t>
+  </si>
+  <si>
+    <t>inter_meds_yn</t>
+  </si>
+  <si>
+    <t>dia_urn_yn</t>
+  </si>
+  <si>
+    <t>dia_bld_yn</t>
+  </si>
+  <si>
+    <t>dia_rapid_strep_yn</t>
+  </si>
+  <si>
+    <t>dia_lmbr_yn</t>
+  </si>
+  <si>
+    <t>dia_naso_yn</t>
+  </si>
+  <si>
+    <t>phys_fund_yn</t>
+  </si>
+  <si>
+    <t>pres_prev_visit_yn</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C84"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>72</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>37</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
@@ -1956,16 +1956,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>164</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -1991,21 +1991,21 @@
         <v>17</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -2014,7 +2014,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>27</v>
@@ -2023,21 +2023,21 @@
         <v>28</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>211</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>78</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>78</v>
@@ -2091,16 +2091,16 @@
     </row>
     <row r="18" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>163</v>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>78</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>78</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>164</v>
@@ -2178,10 +2178,10 @@
     </row>
     <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>78</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>78</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>78</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>78</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>17</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>17</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>17</v>
@@ -2330,13 +2330,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>17</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>17</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>17</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>17</v>
@@ -2448,13 +2448,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>17</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>17</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="36" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>17</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>211</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>120</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>22</v>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
@@ -2597,13 +2597,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>22</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>120</v>
@@ -2637,36 +2637,36 @@
     </row>
     <row r="43" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>120</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>121</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>120</v>
@@ -2680,13 +2680,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>120</v>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>163</v>
@@ -2715,18 +2715,18 @@
         <v>123</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>211</v>
@@ -2735,18 +2735,18 @@
         <v>182</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>211</v>
@@ -2755,15 +2755,15 @@
         <v>183</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -2815,7 +2815,7 @@
         <v>126</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>69</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -2864,7 +2864,7 @@
         <v>132</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>47</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -2893,7 +2893,7 @@
         <v>133</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>50</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -2922,7 +2922,7 @@
         <v>185</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>53</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -2951,7 +2951,7 @@
         <v>162</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>199</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>124</v>
@@ -2980,7 +2980,7 @@
         <v>134</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>56</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>124</v>
@@ -3009,7 +3009,7 @@
         <v>135</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>59</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>124</v>
@@ -3038,7 +3038,7 @@
         <v>136</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>62</v>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>124</v>
@@ -3067,7 +3067,7 @@
         <v>137</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>65</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>124</v>
@@ -3096,24 +3096,24 @@
         <v>138</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>124</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>124</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="64" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
@@ -3165,15 +3165,15 @@
         <v>187</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>124</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="66" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>124</v>
@@ -3205,15 +3205,15 @@
         <v>188</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>124</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>124</v>
@@ -3245,15 +3245,15 @@
         <v>141</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>124</v>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>124</v>
@@ -3285,15 +3285,15 @@
         <v>143</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>124</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>124</v>
@@ -3325,15 +3325,15 @@
         <v>145</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>124</v>
@@ -3351,30 +3351,30 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>124</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>124</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>124</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="I76" s="16"/>
       <c r="J76" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>50</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>124</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="I77" s="16"/>
       <c r="J77" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>44</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>124</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>203</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>124</v>
@@ -3493,18 +3493,18 @@
         <v>163</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>124</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>124</v>
@@ -3536,15 +3536,15 @@
         <v>151</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>124</v>
@@ -3558,13 +3558,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>209</v>
@@ -3581,19 +3581,19 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>211</v>
@@ -3602,21 +3602,21 @@
         <v>154</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>17</v>
@@ -3628,16 +3628,16 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>17</v>
@@ -3652,13 +3652,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>210</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>163</v>
@@ -3690,18 +3690,18 @@
         <v>190</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>120</v>
@@ -3715,13 +3715,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>43</v>
@@ -3732,13 +3732,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>120</v>
@@ -3752,13 +3752,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>120</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>214</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>120</v>
@@ -3795,13 +3795,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>120</v>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>163</v>
@@ -3830,18 +3830,18 @@
         <v>193</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>17</v>
@@ -3852,13 +3852,13 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>120</v>
@@ -3872,13 +3872,13 @@
     </row>
     <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>163</v>
@@ -3887,18 +3887,18 @@
         <v>196</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>17</v>
@@ -3909,13 +3909,13 @@
     </row>
     <row r="100" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>211</v>
@@ -3924,18 +3924,18 @@
         <v>161</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>211</v>
@@ -3944,7 +3944,7 @@
         <v>198</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J101" s="22" t="s">
         <v>206</v>
@@ -3952,22 +3952,22 @@
     </row>
     <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>163</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>23</v>
@@ -3975,39 +3975,39 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>211</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
